--- a/DMSNewVSale_2025-12-06_18-28.xlsx
+++ b/DMSNewVSale_2025-12-06_18-28.xlsx
@@ -834,6 +834,15 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فاتيكا الحبه السوداء 210 جم</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
   </si>
   <si>
     <t xml:space="preserve">ماء اكسجين 10 </t>
@@ -4571,7 +4580,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4581,11 +4590,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>11</v>
@@ -4597,14 +4606,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4614,14 +4623,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4630,14 +4639,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4647,14 +4656,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4663,14 +4672,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4680,51 +4689,84 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>282</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>239</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>75</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>66</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>19</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" ht="26.25" customHeight="1">
-      <c r="N104" s="13">
-        <v>6171.3649999999998</v>
-      </c>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>280</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>281</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>282</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="N105" s="13">
+        <v>6246.3649999999998</v>
+      </c>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>283</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>284</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>285</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5218,10 +5260,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="N105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
